--- a/biology/Médecine/Prix_Harvey/Prix_Harvey.xlsx
+++ b/biology/Médecine/Prix_Harvey/Prix_Harvey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Harvey est une récompense décernée par le Technion à des personnes ayant contribué au développement de la science, de la technologie, de la santé et de la paix.
 Une partie de ces lauréats furent ensuite nobélisés: Mikhaïl Gorbatchev (Paix, 1990), Bert Sakmann (Physiologie ou Médecine, 1991), Pierre-Gilles de Gennes (Physique, 1991), Claude Cohen-Tannoudji (Physique, 1997), Eric Kandel (Physiologie ou Médecine, 2000), K. Barry Sharpless (Chimie, 2001), Sydney Brenner (Physiologie ou Médecine, 2002), Paul Lauterbur (Physiologie ou Médecine, 2003), David J. Gross (Physique, 2004), Robert Aumann (Économie, 2005), Roger Kornberg (Chimie, 2006), Elizabeth Blackburn (Physiologie ou Médecine, 2009), Ada Yonath (Chimie, 2009), Kip Thorne et Rainer Weiss (Physique, 2017), Arthur Ashkin (Physique, 2018), James Allison (Physiologie ou Médecine, 2018).
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix tire son nom de l'ingénieur Leo M. Harvey[1], et est dérivé d'un don fait par la Fondation Lena P. Harvey à l'American Technion Society[2] en septembre 1971.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix tire son nom de l'ingénieur Leo M. Harvey, et est dérivé d'un don fait par la Fondation Lena P. Harvey à l'American Technion Society en septembre 1971.
 La première attribution des Prix Harvey a eu lieu en 1972 à la résidence officielle du président d'Israël à Jérusalem. Outre l'ancien président Zalman Shazar, l'ancien Premier ministre Golda Meir, les ministres du gouvernement et des représentants de l'American Technion Society (ATS) y ont participé. Cette ceremonie a été suivie d'une réception à la Knesset, où Yigal Allon, ancien ministre de l'éducation et de la culture (en), a pris la parole devant les lauréats et l'auditoire. Leo Harvey est venu en Israël pour participer à cet événement inaugural.
 Depuis, le prix Harvey a été décerné chaque année lors d'une cérémonie au Technion.
 Des sommités mondiales de la science, de la technologie, de la médecine, du gouvernement et de la littérature font partie des lauréats.
@@ -546,7 +560,9 @@
           <t>Le Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prix, d'un montant de 75 000 US$, sont décernés, au Technion à Haifa, en Sciences et Technologie (S&amp;T), Médecine, ou pour une contribution importante à la paix au Moyen-Orient ou aux Sciences Economiques ou Sociales
 </t>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Liens Externes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Prix Harvey</t>
         </is>
